--- a/AfDD_2024_Annex_Table_Tab28.xlsx
+++ b/AfDD_2024_Annex_Table_Tab28.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A62B02E-1A99-418A-B8B9-3B2DC2A83244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{319C88D1-23A9-4298-B6EE-7B5B034631C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{31F677A6-6D83-4C63-9A25-74F6FBCAD8B9}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{9EADA7C2-4373-4446-8202-91E4DE5BA442}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="177">
   <si>
     <t>Table 28: International trade costs</t>
   </si>
@@ -555,13 +555,10 @@
     <t>Source: ESCAP-World Bank Trade Cost Database (updated 17/05/2022).</t>
   </si>
   <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
-  </si>
-  <si>
-    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
@@ -577,31 +574,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -614,6 +596,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -687,6 +677,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -695,10 +692,23 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -713,13 +723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFD42C2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,24 +744,11 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -760,7 +757,20 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -768,20 +778,20 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -789,7 +799,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
@@ -799,7 +809,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -807,77 +817,25 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,152 +844,252 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1042,39 +1100,43 @@
     <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1390,19 +1452,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AC3C9A-BEB5-4A9A-982F-5A1AA888542C}">
-  <sheetPr codeName="Sheet32">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0C44B5-0350-430F-AC94-D26AB47472E7}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="12.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12.42578125" style="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1410,4557 +1472,4558 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>135.414885017638</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>164.08257434967399</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>171.43174845803</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="13">
         <v>184.435942686093</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="12">
         <v>331.73368435862199</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="13">
         <v>238.22339852550201</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="13">
         <v>285.32863666969098</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="13">
         <v>562.97461711242602</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="13" t="s">
+      <c r="M3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="16">
         <v>53.165309183216799</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="17">
         <v>54.4731145651958</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>56.017752860545102</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="17">
         <v>140.30552327720301</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="16">
         <v>76.482682376642899</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="17">
         <v>79.340995404021598</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="17">
         <v>80.623237757199902</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="17">
         <v>283.66100848530999</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="17" t="s">
+      <c r="M4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <v>42.029769200399102</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>47.2316141801642</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="21">
         <v>67.039285678448707</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="21">
         <v>126.18021791353399</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="20">
         <v>74.630435243088201</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="21">
         <v>91.894812122434203</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="21">
         <v>109.43648626371601</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="21">
         <v>130.94083649750999</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="21" t="s">
+      <c r="M5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="20">
         <v>41.2241669518259</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="21">
         <v>45.077632181930198</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="21">
         <v>45.765011639771899</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>167.76646865743001</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="20">
         <v>77.351707638214293</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="21">
         <v>86.338919741616806</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="21">
         <v>86.338919741616806</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="21">
         <v>116.151074895096</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="21" t="s">
+      <c r="M6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="20">
         <v>119.19049444331399</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>129.94880859149501</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="21">
         <v>141.19790293920801</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="21">
         <v>249.62284893448901</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="20">
         <v>145.98696444853201</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="21">
         <v>129.679942566812</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="21">
         <v>162.00167570411199</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="21">
         <v>268.28108846842701</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="20">
         <v>64.744134205838407</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>65.920465318066107</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="21">
         <v>79.267098438386398</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="21">
         <v>138.14867786992099</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="20">
         <v>96.991826178992994</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="21">
         <v>97.642127733707994</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="21">
         <v>101.25405930437</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="21">
         <v>243.64013394740499</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="21" t="s">
+      <c r="M8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="20">
         <v>49.408878114567898</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>52.045972968296603</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="21">
         <v>95.062359729921496</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="21">
         <v>168.027617696737</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="20">
         <v>110.633709758471</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="21">
         <v>113.19897673384</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="21">
         <v>140.87571400792899</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="21">
         <v>276.15685107152098</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="21" t="s">
+      <c r="M9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="20">
         <v>49.4066026909491</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="21">
         <v>54.103161337061898</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="21">
         <v>84.867690222964995</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="21">
         <v>105.039217281064</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="20">
         <v>65.392292505829303</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="21">
         <v>72.687211242628095</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="21">
         <v>128.15194490802801</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="21">
         <v>158.37767726869399</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="21" t="s">
+      <c r="M10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="C11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="16">
         <v>287.14316054957999</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="17">
         <v>135.09194664815999</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="17">
         <v>237.975919301776</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="17">
         <v>325.06694508101299</v>
       </c>
-      <c r="M11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="17" t="s">
+      <c r="M11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="24">
         <v>64.116470006336201</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="25">
         <v>68.248042324718398</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="25">
         <v>101.861803667616</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="25">
         <v>209.24949700847</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="19">
+      <c r="G12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="24">
         <v>53.862925168458098</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="25">
         <v>60.896803257007399</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="25">
         <v>78.276914918341504</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="25">
         <v>403.37955691729798</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="21" t="s">
+      <c r="M12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="29">
         <v>52.829190545454601</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="30">
         <v>58.381310871573298</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="30">
         <v>84.305076553325094</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="30">
         <v>127.08551548130799</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="30">
         <v>58.381310871573298</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="30">
         <v>141.48352528352001</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="29">
         <v>94.599553817284303</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="30">
         <v>88.7153662929326</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="30">
         <v>131.78167360118499</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="30">
         <v>233.617960354704</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="30">
         <v>88.7153662929326</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="31">
         <v>268.52689847984902</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="33">
         <v>140.564547198188</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="34">
         <v>167.95274327071999</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="34">
         <v>169.989269430402</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="34">
         <v>277.04805379926802</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="19">
+      <c r="G14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="33">
         <v>315.39051343111203</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="34">
         <v>583.35818866295597</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="34">
         <v>298.50103159952198</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="34">
         <v>400.82021811182301</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="21" t="s">
+      <c r="M14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="20">
         <v>175.46929103248601</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="21">
         <v>85.224252022990001</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="21">
         <v>182.36026806822099</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="21">
         <v>197.182623728338</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="20">
         <v>322.20257447080598</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="21">
         <v>222.65901315235101</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="21">
         <v>333.86452947167197</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="21">
         <v>274.99789810984799</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="21" t="s">
+      <c r="M15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="20">
+      <c r="C16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="21">
         <v>279.37021188310001</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="21" t="s">
+      <c r="I16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="37">
         <v>242.301604186481</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="38">
         <v>340.29494581209298</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="38">
         <v>330.18941019018803</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="38">
         <v>265.95585531332398</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="28">
+      <c r="G17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="37">
         <v>387.00804454204598</v>
       </c>
-      <c r="J17" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="29">
+      <c r="J17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="38">
         <v>381.99617463213798</v>
       </c>
-      <c r="M17" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="30" t="s">
+      <c r="M17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="29">
+      <c r="C18" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="38">
         <v>178.34525065351301</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="38">
         <v>176.73118050223201</v>
       </c>
-      <c r="G18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="29">
+      <c r="G18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="38">
         <v>281.05373281807999</v>
       </c>
-      <c r="M18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="30" t="s">
+      <c r="M18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="16">
         <v>83.975939855266603</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="17">
         <v>186.87748978549001</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="17">
         <v>116.907029796861</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="17">
         <v>162.69131078934399</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="16">
         <v>375.00545843222801</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="17">
         <v>533.86401498803195</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="17">
         <v>389.008180647225</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="17">
         <v>337.187770734808</v>
       </c>
-      <c r="M19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="17" t="s">
+      <c r="M19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="29">
+      <c r="C20" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="38">
         <v>199.766867072705</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="38">
         <v>166.55147444830899</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="38">
         <v>245.97596552548899</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="29">
+      <c r="G20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="38">
         <v>262.76875908081399</v>
       </c>
-      <c r="M20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="30" t="s">
+      <c r="M20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="30" t="s">
+      <c r="C21" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="20">
+      <c r="C22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="25">
         <v>274.49676419187199</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="25">
         <v>289.47270088668802</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="25">
         <v>225.48415121521501</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="20">
+      <c r="G22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="25">
         <v>251.74236982453999</v>
       </c>
-      <c r="M22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="21" t="s">
+      <c r="M22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="29">
         <v>120.572165488262</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="D23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="30">
         <v>139.715403030175</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="30">
         <v>184.97574400341901</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="26">
+      <c r="G23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="30">
         <v>185.131909940746</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="29">
         <v>359.36785386713001</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="25">
+      <c r="J23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="30">
         <v>377.42501274115</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="30">
         <v>314.738372814326</v>
       </c>
-      <c r="M23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="26">
+      <c r="M23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="31">
         <v>314.31396550782398</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="20">
+      <c r="C24" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="34">
         <v>462.24218516269298</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="34">
         <v>438.52933605046599</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="34">
         <v>393.18429195693699</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="21" t="s">
+      <c r="M24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="20" t="s">
+      <c r="C25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="21" t="s">
+      <c r="I25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="20" t="s">
+      <c r="C26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" s="21" t="s">
+      <c r="I26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="20">
         <v>148.084282913447</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="21">
         <v>162.64148701786601</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="21">
         <v>241.82704164292099</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="21">
         <v>235.724315475678</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="20">
         <v>222.39555751620901</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="21">
         <v>271.14581352322199</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="21">
         <v>432.65186096662097</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="21">
         <v>318.05851206673202</v>
       </c>
-      <c r="M27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27" s="21" t="s">
+      <c r="M27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="20">
         <v>82.544490039661198</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="21">
         <v>90.764421916446693</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="21">
         <v>121.825958680716</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="21">
         <v>174.85660503435699</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="20">
         <v>146.26462023531201</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="21">
         <v>168.99698175894599</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="21">
         <v>200.478062788801</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="21">
         <v>259.16444092014598</v>
       </c>
-      <c r="M28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="21" t="s">
+      <c r="M28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="20">
+      <c r="C29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="21">
         <v>103.89587184750999</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="21">
         <v>188.694200786473</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="21">
         <v>173.43962503860399</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="20">
+      <c r="I29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="21">
         <v>253.25120359499701</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="21">
         <v>304.69223188595299</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="21">
         <v>287.70259549291802</v>
       </c>
-      <c r="M29" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="21" t="s">
+      <c r="M29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="20">
+      <c r="C30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="21">
         <v>112.809350517879</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="21">
         <v>137.492141663436</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="21">
         <v>159.011387792047</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="20">
+      <c r="I30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="21">
         <v>263.74840838207399</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="21">
         <v>216.48242492524801</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="21">
         <v>272.34567421004402</v>
       </c>
-      <c r="M30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="21" t="s">
+      <c r="M30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="20">
         <v>146.670481525192</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="21">
         <v>138.94075939211001</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="21">
         <v>192.16993685544099</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="21">
         <v>251.22186337318701</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="20">
         <v>364.91308933578603</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="21">
         <v>220.669921208576</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="21">
         <v>249.75853902850201</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="21">
         <v>385.39611171902101</v>
       </c>
-      <c r="M31" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="21" t="s">
+      <c r="M31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="20" t="s">
+      <c r="C32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="20">
+      <c r="I32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="21">
         <v>206.596452000406</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="21">
         <v>223.84139894108301</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="21">
         <v>301.70732994618101</v>
       </c>
-      <c r="M32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" s="21" t="s">
+      <c r="M32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="20" t="s">
+      <c r="C33" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M33" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N33" s="21" t="s">
+      <c r="I33" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="30" t="s">
+      <c r="C34" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="20">
         <v>110.545419059552</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="21">
         <v>233.87425409461201</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="21">
         <v>143.85912063005799</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="21">
         <v>151.366299632497</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="20">
         <v>176.26239264518401</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="21">
         <v>222.401390814395</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="21">
         <v>189.654083969916</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="21">
         <v>202.56221492721099</v>
       </c>
-      <c r="M35" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N35" s="21" t="s">
+      <c r="M35" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="20">
         <v>83.260743662260793</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="21">
         <v>97.538875707088707</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="21">
         <v>92.313644101608304</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="21">
         <v>152.393505288592</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="20">
         <v>254.450395375841</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="21">
         <v>183.120489092589</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="21">
         <v>254.99353309982899</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="21">
         <v>282.49907199189698</v>
       </c>
-      <c r="M36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" s="21" t="s">
+      <c r="M36" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="24">
         <v>92.904204529128194</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="25">
         <v>97.510270319275094</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="25">
         <v>161.92008410793801</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="25">
         <v>182.15838948321201</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="19">
+      <c r="G37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="24">
         <v>141.06292551257701</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="25">
         <v>144.751681216798</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="25">
         <v>197.48085574459199</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="25">
         <v>261.51299187487098</v>
       </c>
-      <c r="M37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" s="21" t="s">
+      <c r="M37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="29">
         <v>89.503927130749005</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="30">
         <v>102.699417911073</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="30">
         <v>137.241813421866</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="30">
         <v>177.85409752718499</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="30">
         <v>102.699417911073</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="30">
         <v>184.119947107472</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="29">
         <v>191.33460955521801</v>
       </c>
-      <c r="J38" s="25">
+      <c r="J38" s="30">
         <v>177.303788703256</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K38" s="30">
         <v>232.318017908754</v>
       </c>
-      <c r="L38" s="25">
+      <c r="L38" s="30">
         <v>270.82676466573002</v>
       </c>
-      <c r="M38" s="25">
+      <c r="M38" s="30">
         <v>177.303788703256</v>
       </c>
-      <c r="N38" s="26">
+      <c r="N38" s="31">
         <v>278.89955633655597</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="12">
         <v>91.183382438959896</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="13">
         <v>90.927939926053298</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="13">
         <v>102.361123224788</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="13">
         <v>109.55036261400301</v>
       </c>
-      <c r="G39" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="28">
+      <c r="G39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="12">
         <v>250.50480353686501</v>
       </c>
-      <c r="J39" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="29">
+      <c r="J39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="13">
         <v>271.55407858624301</v>
       </c>
-      <c r="M39" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" s="30" t="s">
+      <c r="M39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="20">
         <v>162.19438113287899</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="21">
         <v>112.704030826489</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="21">
         <v>181.60923458492101</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="21">
         <v>140.01579285287701</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H40" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="20">
         <v>224.78089764934401</v>
       </c>
-      <c r="J40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="20">
+      <c r="J40" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="21">
         <v>283.539259155943</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L40" s="21">
         <v>189.91393325519601</v>
       </c>
-      <c r="M40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="21" t="s">
+      <c r="M40" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N41" s="30" t="s">
+      <c r="C41" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="37">
         <v>129.88137890261601</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="38">
         <v>137.53593288384201</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="38">
         <v>149.26990891233399</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="38">
         <v>155.74347953125701</v>
       </c>
-      <c r="G42" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="28">
+      <c r="G42" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="37">
         <v>266.69700078161497</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="38">
         <v>267.54247863429202</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42" s="38">
         <v>278.81377794704798</v>
       </c>
-      <c r="L42" s="29">
+      <c r="L42" s="38">
         <v>396.61359726683798</v>
       </c>
-      <c r="M42" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N42" s="30" t="s">
+      <c r="M42" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="20">
         <v>43.560075496739898</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="21">
         <v>112.647647942985</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="21">
         <v>168.129217948058</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="21">
         <v>103.189261641979</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="20">
         <v>83.752651603275098</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="21">
         <v>209.24553972875401</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K43" s="21">
         <v>291.16891230009099</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="21">
         <v>167.72101669953199</v>
       </c>
-      <c r="M43" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N43" s="21" t="s">
+      <c r="M43" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="20">
+      <c r="C44" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="25">
         <v>101.660074105926</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="25">
         <v>141.863011203074</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="25">
         <v>97.3410866620886</v>
       </c>
-      <c r="G44" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="20">
+      <c r="G44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="25">
         <v>204.382314297813</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="25">
         <v>277.90770295712298</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="25">
         <v>203.40967438821201</v>
       </c>
-      <c r="M44" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N44" s="21" t="s">
+      <c r="M44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="29">
         <v>52.616210251126802</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="30">
         <v>107.857153424751</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="30">
         <v>162.41282590823101</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="30">
         <v>119.882242841174</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="30">
         <v>107.857153424751</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="30">
         <v>120.00353775299401</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="29">
         <v>97.911482658113698</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="30">
         <v>219.38295016152099</v>
       </c>
-      <c r="K45" s="25">
+      <c r="K45" s="30">
         <v>284.49303318541502</v>
       </c>
-      <c r="L45" s="25">
+      <c r="L45" s="30">
         <v>202.78970635344501</v>
       </c>
-      <c r="M45" s="25">
+      <c r="M45" s="30">
         <v>219.38295016152099</v>
       </c>
-      <c r="N45" s="26">
+      <c r="N45" s="31">
         <v>202.50032828328</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="33">
         <v>146.368788894358</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="34">
         <v>152.122271807884</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="34">
         <v>189.1899534982</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="34">
         <v>226.83826464217799</v>
       </c>
-      <c r="G46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="19">
+      <c r="G46" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="33">
         <v>411.36629007262502</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="34">
         <v>425.77086785208098</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="34">
         <v>432.19358117205599</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L46" s="34">
         <v>366.15725271335401</v>
       </c>
-      <c r="M46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N46" s="21" t="s">
+      <c r="M46" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="20">
         <v>73.623061399406296</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="21">
         <v>78.419225267355699</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="21">
         <v>139.601216109505</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="21">
         <v>142.814530121589</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="20">
         <v>181.960143180514</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="21">
         <v>195.068505738119</v>
       </c>
-      <c r="K47" s="20">
+      <c r="K47" s="21">
         <v>213.04883758444501</v>
       </c>
-      <c r="L47" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M47" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N47" s="21" t="s">
+      <c r="L47" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="29">
+      <c r="C48" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="38">
         <v>253.447919647958</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="38">
         <v>149.493731910794</v>
       </c>
-      <c r="G48" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="29">
+      <c r="G48" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="38">
         <v>196.49155449244401</v>
       </c>
-      <c r="M48" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N48" s="30" t="s">
+      <c r="M48" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="20">
         <v>56.779057055393302</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="21">
         <v>129.805961746929</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="21">
         <v>134.770907732513</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="21">
         <v>181.561146494176</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="20">
         <v>208.84993000303399</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="21">
         <v>350.60234481152497</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="21">
         <v>332.09417813481298</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="21">
         <v>251.27221321771901</v>
       </c>
-      <c r="M49" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N49" s="21" t="s">
+      <c r="M49" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="20">
         <v>119.708324284189</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="21">
         <v>165.75878821324699</v>
       </c>
-      <c r="E50" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="20">
+      <c r="E50" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="21">
         <v>238.418338585057</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="20">
         <v>295.38617581522902</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="21">
         <v>295.38617581522902</v>
       </c>
-      <c r="K50" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="20">
+      <c r="K50" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="21">
         <v>386.09889562614597</v>
       </c>
-      <c r="M50" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N50" s="21" t="s">
+      <c r="M50" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="16">
         <v>84.814919171329507</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="17">
         <v>97.742948823945895</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="17">
         <v>103.553136568537</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="17">
         <v>148.79541634193799</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="16">
         <v>253.342789348097</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="17">
         <v>287.88593970255101</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K51" s="17">
         <v>267.58324355931001</v>
       </c>
-      <c r="L51" s="16">
+      <c r="L51" s="17">
         <v>267.10061143573898</v>
       </c>
-      <c r="M51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N51" s="17" t="s">
+      <c r="M51" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="20" t="s">
+      <c r="C52" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H52" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N52" s="21" t="s">
+      <c r="I52" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="20" t="s">
+      <c r="C53" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H53" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N53" s="21" t="s">
+      <c r="I53" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="20" t="s">
+      <c r="C54" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="20">
+      <c r="I54" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="21">
         <v>745.84191648556498</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="21">
         <v>521.96076943893297</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L54" s="21">
         <v>314.36303333733201</v>
       </c>
-      <c r="M54" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N54" s="21" t="s">
+      <c r="M54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="20">
         <v>48.2286447116091</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="21">
         <v>55.814427412362903</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="21">
         <v>61.595203037734798</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="21">
         <v>106.597886756723</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="G55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H55" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="20">
         <v>168.265063774417</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="21">
         <v>180.66017889037801</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="21">
         <v>211.93931638429501</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="21">
         <v>639.98266478599601</v>
       </c>
-      <c r="M55" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N55" s="21" t="s">
+      <c r="M55" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="20">
         <v>115.948459973769</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="21">
         <v>127.014156832293</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="21">
         <v>141.73928300935</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="21">
         <v>227.57283722766499</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H56" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="20">
         <v>254.19041614927499</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="21">
         <v>278.22522469191802</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="21">
         <v>287.07620311151601</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="21">
         <v>463.96284932991199</v>
       </c>
-      <c r="M56" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N56" s="21" t="s">
+      <c r="M56" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="20">
         <v>184.358328120675</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="21">
         <v>165.35133368230001</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="21">
         <v>206.19549951804501</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="21">
         <v>199.99757714491199</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H57" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="20">
         <v>324.74849190648303</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="21">
         <v>418.16561793497101</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K57" s="21">
         <v>320.44871550930202</v>
       </c>
-      <c r="L57" s="20">
+      <c r="L57" s="21">
         <v>302.54869974473399</v>
       </c>
-      <c r="M57" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" s="21" t="s">
+      <c r="M57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="20">
         <v>61.491663806619897</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="21">
         <v>109.902086365317</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="21">
         <v>130.86031289406699</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="21">
         <v>173.434949235989</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H58" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="20">
         <v>174.50085286834201</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="21">
         <v>274.253363149395</v>
       </c>
-      <c r="K58" s="20">
+      <c r="K58" s="21">
         <v>293.39237988854802</v>
       </c>
-      <c r="L58" s="20">
+      <c r="L58" s="21">
         <v>267.13251086553601</v>
       </c>
-      <c r="M58" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N58" s="21" t="s">
+      <c r="M58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="20">
+      <c r="C59" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="21">
         <v>122.920770192102</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="21">
         <v>167.131121186565</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="21">
         <v>182.35849780955499</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="20">
+      <c r="I59" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="21">
         <v>468.177625827714</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="21">
         <v>450.42679763866801</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L59" s="21">
         <v>490.41873976068098</v>
       </c>
-      <c r="M59" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N59" s="21" t="s">
+      <c r="M59" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="42">
         <v>91.465549725783205</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="43">
         <v>120.80953066194</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="43">
         <v>147.407052992601</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="43">
         <v>232.119353344888</v>
       </c>
-      <c r="G60" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="15">
+      <c r="G60" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="42">
         <v>352.10710931733303</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="43">
         <v>382.845673278719</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="43">
         <v>376.486767772782</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L60" s="43">
         <v>384.80795412559399</v>
       </c>
-      <c r="M60" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N60" s="17" t="s">
+      <c r="M60" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" s="44" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="29">
         <v>99.656113081710799</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="30">
         <v>120.846291793232</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="30">
         <v>155.90312995189501</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F61" s="30">
         <v>183.97073061178099</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="30">
         <v>120.846291793232</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H61" s="30">
         <v>189.076292214235</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="29">
         <v>248.26854021248101</v>
       </c>
-      <c r="J61" s="25">
+      <c r="J61" s="30">
         <v>313.70445652747998</v>
       </c>
-      <c r="K61" s="25">
+      <c r="K61" s="30">
         <v>303.00484626926902</v>
       </c>
-      <c r="L61" s="25">
+      <c r="L61" s="30">
         <v>314.94431234019601</v>
       </c>
-      <c r="M61" s="25">
+      <c r="M61" s="30">
         <v>313.70445652747998</v>
       </c>
-      <c r="N61" s="26">
+      <c r="N61" s="31">
         <v>315.03725402507098</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="34">
+      <c r="C62" s="47">
         <v>64.746506550344606</v>
       </c>
-      <c r="D62" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="35">
+      <c r="D62" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="48">
         <v>118.275055132802</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="48">
         <v>147.01891605103501</v>
       </c>
-      <c r="G62" s="35">
+      <c r="G62" s="48">
         <v>118.275055132802</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="48">
         <v>151.45425611874001</v>
       </c>
-      <c r="I62" s="34">
+      <c r="I62" s="47">
         <v>135.035495984769</v>
       </c>
-      <c r="J62" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="35">
+      <c r="J62" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="48">
         <v>205.20731480398899</v>
       </c>
-      <c r="L62" s="35">
+      <c r="L62" s="48">
         <v>250.74732725358899</v>
       </c>
-      <c r="M62" s="35">
+      <c r="M62" s="48">
         <v>205.20731480398899</v>
       </c>
-      <c r="N62" s="36">
+      <c r="N62" s="49">
         <v>258.10655767002697</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="51">
         <v>41.903946409709803</v>
       </c>
-      <c r="D63" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="39">
+      <c r="D63" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="52">
         <v>62.784697023253699</v>
       </c>
-      <c r="F63" s="39">
+      <c r="F63" s="52">
         <v>80.851292913086695</v>
       </c>
-      <c r="G63" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="38">
+      <c r="G63" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="51">
         <v>71.843781160504193</v>
       </c>
-      <c r="J63" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="39">
+      <c r="J63" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="52">
         <v>117.093541554306</v>
       </c>
-      <c r="L63" s="39">
+      <c r="L63" s="52">
         <v>145.11844007023001</v>
       </c>
-      <c r="M63" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="N63" s="40" t="s">
+      <c r="M63" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N63" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="34">
+      <c r="C64" s="56">
         <v>41.007192145993102</v>
       </c>
-      <c r="D64" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="35">
+      <c r="D64" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="57">
         <v>50.379161352215903</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="57">
         <v>90.040324637087906</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="57">
         <v>99.513196569965402</v>
       </c>
-      <c r="H64" s="36">
+      <c r="H64" s="57">
         <v>88.566714751829196</v>
       </c>
-      <c r="I64" s="34">
+      <c r="I64" s="56">
         <v>58.243206809794899</v>
       </c>
-      <c r="J64" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K64" s="35">
+      <c r="J64" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="57">
         <v>71.852729183849604</v>
       </c>
-      <c r="L64" s="35">
+      <c r="L64" s="57">
         <v>142.82499461002101</v>
       </c>
-      <c r="M64" s="35">
+      <c r="M64" s="57">
         <v>169.09670232525301</v>
       </c>
-      <c r="N64" s="36">
+      <c r="N64" s="58">
         <v>138.68440947428701</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="44">
+      <c r="C65" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="60">
         <v>84.004585325438399</v>
       </c>
-      <c r="F65" s="44">
+      <c r="F65" s="60">
         <v>92.182307892091998</v>
       </c>
-      <c r="G65" s="44">
+      <c r="G65" s="60">
         <v>81.905988568249398</v>
       </c>
-      <c r="H65" s="45">
+      <c r="H65" s="60">
         <v>95.147708355720695</v>
       </c>
-      <c r="I65" s="43">
+      <c r="I65" s="59">
         <v>140.56595469057601</v>
       </c>
-      <c r="J65" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K65" s="44">
+      <c r="J65" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="60">
         <v>162.149748984571</v>
       </c>
-      <c r="L65" s="44">
+      <c r="L65" s="60">
         <v>172.84247207897801</v>
       </c>
-      <c r="M65" s="44">
+      <c r="M65" s="60">
         <v>146.92626156859001</v>
       </c>
-      <c r="N65" s="45">
+      <c r="N65" s="61">
         <v>182.36218342098601</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="47">
+      <c r="C66" s="63">
         <v>42.2131444950709</v>
       </c>
-      <c r="D66" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="48">
+      <c r="D66" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="64">
         <v>63.237598371748703</v>
       </c>
-      <c r="F66" s="48">
+      <c r="F66" s="64">
         <v>82.9835818444121</v>
       </c>
-      <c r="G66" s="48">
+      <c r="G66" s="64">
         <v>82.928307665903105</v>
       </c>
-      <c r="H66" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="47">
+      <c r="H66" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="63">
         <v>72.659697705336299</v>
       </c>
-      <c r="J66" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" s="48">
+      <c r="J66" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="64">
         <v>117.75094777223801</v>
       </c>
-      <c r="L66" s="48">
+      <c r="L66" s="64">
         <v>148.244818354812</v>
       </c>
-      <c r="M66" s="48">
+      <c r="M66" s="64">
         <v>148.22947156646899</v>
       </c>
-      <c r="N66" s="49" t="s">
+      <c r="N66" s="65" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B67" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="59">
         <v>82.115177996658602</v>
       </c>
-      <c r="D67" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="52">
+      <c r="D67" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="60">
         <v>134.91850266070301</v>
       </c>
-      <c r="F67" s="52">
+      <c r="F67" s="60">
         <v>154.82343945680699</v>
       </c>
-      <c r="G67" s="52">
+      <c r="G67" s="60">
         <v>162.39444886631</v>
       </c>
-      <c r="H67" s="53">
+      <c r="H67" s="60">
         <v>154.31589118906899</v>
       </c>
-      <c r="I67" s="51">
+      <c r="I67" s="59">
         <v>191.20976913802801</v>
       </c>
-      <c r="J67" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" s="52">
+      <c r="J67" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="60">
         <v>236.41920779334899</v>
       </c>
-      <c r="L67" s="52">
+      <c r="L67" s="60">
         <v>243.426400868847</v>
       </c>
-      <c r="M67" s="52">
+      <c r="M67" s="60">
         <v>281.412470772875</v>
       </c>
-      <c r="N67" s="53">
+      <c r="N67" s="61">
         <v>241.012039839479</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="43">
+      <c r="C68" s="59">
         <v>67.640620535518096</v>
       </c>
-      <c r="D68" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="44">
+      <c r="D68" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="60">
         <v>160.151558872973</v>
       </c>
-      <c r="F68" s="44">
+      <c r="F68" s="60">
         <v>152.107766441205</v>
       </c>
-      <c r="G68" s="44">
+      <c r="G68" s="60">
         <v>138.857613343168</v>
       </c>
-      <c r="H68" s="45">
+      <c r="H68" s="60">
         <v>152.81138077983701</v>
       </c>
-      <c r="I68" s="43">
+      <c r="I68" s="59">
         <v>141.75753219404001</v>
       </c>
-      <c r="J68" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" s="44">
+      <c r="J68" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="60">
         <v>294.91854988223997</v>
       </c>
-      <c r="L68" s="44">
+      <c r="L68" s="60">
         <v>245.85678597498099</v>
       </c>
-      <c r="M68" s="44">
+      <c r="M68" s="60">
         <v>293.07355908863002</v>
       </c>
-      <c r="N68" s="45">
+      <c r="N68" s="61">
         <v>243.236699984647</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="59">
         <v>87.090729111252401</v>
       </c>
-      <c r="D69" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="44">
+      <c r="D69" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="60">
         <v>128.291895620041</v>
       </c>
-      <c r="F69" s="44">
+      <c r="F69" s="60">
         <v>174.38293862392101</v>
       </c>
-      <c r="G69" s="44">
+      <c r="G69" s="60">
         <v>93.967853162537295</v>
       </c>
-      <c r="H69" s="45">
+      <c r="H69" s="60">
         <v>184.80134908581101</v>
       </c>
-      <c r="I69" s="43">
+      <c r="I69" s="59">
         <v>193.75993004549201</v>
       </c>
-      <c r="J69" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="44">
+      <c r="J69" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="60">
         <v>221.281485813263</v>
       </c>
-      <c r="L69" s="44">
+      <c r="L69" s="60">
         <v>273.542502897068</v>
       </c>
-      <c r="M69" s="44">
+      <c r="M69" s="60">
         <v>158.49548107279099</v>
       </c>
-      <c r="N69" s="45">
+      <c r="N69" s="61">
         <v>288.920959908616</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="59">
         <v>121.24123817748</v>
       </c>
-      <c r="D70" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="44">
+      <c r="D70" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="60">
         <v>143.99701715492799</v>
       </c>
-      <c r="F70" s="44">
+      <c r="F70" s="60">
         <v>186.524564933172</v>
       </c>
-      <c r="G70" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" s="45">
+      <c r="G70" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="60">
         <v>186.82444279629499</v>
       </c>
-      <c r="I70" s="43">
+      <c r="I70" s="59">
         <v>358.61626763941803</v>
       </c>
-      <c r="J70" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" s="44">
+      <c r="J70" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="60">
         <v>366.00259323281398</v>
       </c>
-      <c r="L70" s="44">
+      <c r="L70" s="60">
         <v>403.08091637048398</v>
       </c>
-      <c r="M70" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N70" s="45">
+      <c r="M70" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" s="61">
         <v>403.14083606706799</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="59">
         <v>99.656113081710799</v>
       </c>
-      <c r="D71" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="44">
+      <c r="D71" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="60">
         <v>155.90312995189501</v>
       </c>
-      <c r="F71" s="44">
+      <c r="F71" s="60">
         <v>183.97073061178099</v>
       </c>
-      <c r="G71" s="44">
+      <c r="G71" s="60">
         <v>120.846291793232</v>
       </c>
-      <c r="H71" s="45">
+      <c r="H71" s="60">
         <v>189.076292214235</v>
       </c>
-      <c r="I71" s="43">
+      <c r="I71" s="59">
         <v>248.26854021248101</v>
       </c>
-      <c r="J71" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71" s="44">
+      <c r="J71" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="60">
         <v>303.00484626926902</v>
       </c>
-      <c r="L71" s="44">
+      <c r="L71" s="60">
         <v>314.94431234019601</v>
       </c>
-      <c r="M71" s="44">
+      <c r="M71" s="60">
         <v>313.70445652747998</v>
       </c>
-      <c r="N71" s="45">
+      <c r="N71" s="61">
         <v>315.03725402507098</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="43">
+      <c r="C72" s="59">
         <v>93.157684792014095</v>
       </c>
-      <c r="D72" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="44">
+      <c r="D72" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="60">
         <v>149.90141040155399</v>
       </c>
-      <c r="F72" s="44">
+      <c r="F72" s="60">
         <v>184.757387059336</v>
       </c>
-      <c r="G72" s="44">
+      <c r="G72" s="60">
         <v>98.854190436121598</v>
       </c>
-      <c r="H72" s="45">
+      <c r="H72" s="60">
         <v>189.65789223657001</v>
       </c>
-      <c r="I72" s="43">
+      <c r="I72" s="59">
         <v>150.260724849159</v>
       </c>
-      <c r="J72" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K72" s="44">
+      <c r="J72" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="60">
         <v>218.61489869005601</v>
       </c>
-      <c r="L72" s="44">
+      <c r="L72" s="60">
         <v>260.47489461671103</v>
       </c>
-      <c r="M72" s="44">
+      <c r="M72" s="60">
         <v>140.98342444442099</v>
       </c>
-      <c r="N72" s="45">
+      <c r="N72" s="61">
         <v>267.43481438409498</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="43">
+      <c r="C73" s="59">
         <v>56.529197541671898</v>
       </c>
-      <c r="D73" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="44">
+      <c r="D73" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="60">
         <v>89.366760946983902</v>
       </c>
-      <c r="F73" s="44">
+      <c r="F73" s="60">
         <v>133.16828587664</v>
       </c>
-      <c r="G73" s="44">
+      <c r="G73" s="60">
         <v>69.749477888019698</v>
       </c>
-      <c r="H73" s="45">
+      <c r="H73" s="60">
         <v>147.578333232674</v>
       </c>
-      <c r="I73" s="43">
+      <c r="I73" s="59">
         <v>123.676043920965</v>
       </c>
-      <c r="J73" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73" s="44">
+      <c r="J73" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="60">
         <v>162.72625193996601</v>
       </c>
-      <c r="L73" s="44">
+      <c r="L73" s="60">
         <v>246.59186423524099</v>
       </c>
-      <c r="M73" s="44">
+      <c r="M73" s="60">
         <v>146.924356750307</v>
       </c>
-      <c r="N73" s="45">
+      <c r="N73" s="61">
         <v>272.60654783833502</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="43">
+      <c r="C74" s="59">
         <v>46.043654127179401</v>
       </c>
-      <c r="D74" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="44">
+      <c r="D74" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="60">
         <v>149.482574195175</v>
       </c>
-      <c r="F74" s="44">
+      <c r="F74" s="60">
         <v>106.3760985311</v>
       </c>
-      <c r="G74" s="44">
+      <c r="G74" s="60">
         <v>100.113421179893</v>
       </c>
-      <c r="H74" s="45">
+      <c r="H74" s="60">
         <v>106.446262907476</v>
       </c>
-      <c r="I74" s="43">
+      <c r="I74" s="59">
         <v>91.674170094390007</v>
       </c>
-      <c r="J74" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K74" s="44">
+      <c r="J74" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="60">
         <v>285.16743535253698</v>
       </c>
-      <c r="L74" s="44">
+      <c r="L74" s="60">
         <v>211.81235422769899</v>
       </c>
-      <c r="M74" s="44">
+      <c r="M74" s="60">
         <v>217.67366563092099</v>
       </c>
-      <c r="N74" s="45">
+      <c r="N74" s="61">
         <v>211.71930806236901</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="47">
+      <c r="C75" s="51">
         <v>66.891931627996698</v>
       </c>
-      <c r="D75" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="48">
+      <c r="D75" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="52">
         <v>95.093243831060207</v>
       </c>
-      <c r="F75" s="48">
+      <c r="F75" s="52">
         <v>173.68035544987401</v>
       </c>
-      <c r="G75" s="48">
+      <c r="G75" s="52">
         <v>195.98672114190299</v>
       </c>
-      <c r="H75" s="49">
+      <c r="H75" s="52">
         <v>173.67419783342399</v>
       </c>
-      <c r="I75" s="47">
+      <c r="I75" s="51">
         <v>104.104387786117</v>
       </c>
-      <c r="J75" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75" s="48">
+      <c r="J75" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="52">
         <v>122.379615106298</v>
       </c>
-      <c r="L75" s="48">
+      <c r="L75" s="52">
         <v>438.86334080663198</v>
       </c>
-      <c r="M75" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="N75" s="49">
+      <c r="M75" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N75" s="53">
         <v>438.86334080663198</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="52">
+      <c r="C76" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="68">
         <v>86.274082614359699</v>
       </c>
-      <c r="F76" s="52">
+      <c r="F76" s="68">
         <v>99.120230846942107</v>
       </c>
-      <c r="G76" s="52">
+      <c r="G76" s="68">
         <v>76.054898729014198</v>
       </c>
-      <c r="H76" s="53">
+      <c r="H76" s="68">
         <v>106.73279987255199</v>
       </c>
-      <c r="I76" s="51">
+      <c r="I76" s="67">
         <v>109.046442917175</v>
       </c>
-      <c r="J76" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" s="52">
+      <c r="J76" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="68">
         <v>149.84056157131101</v>
       </c>
-      <c r="L76" s="52">
+      <c r="L76" s="68">
         <v>164.64331979627599</v>
       </c>
-      <c r="M76" s="52">
+      <c r="M76" s="68">
         <v>138.137281544578</v>
       </c>
-      <c r="N76" s="53">
+      <c r="N76" s="69">
         <v>172.96059628277899</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C77" s="43">
+      <c r="C77" s="59">
         <v>85.915169581352501</v>
       </c>
-      <c r="D77" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="44">
+      <c r="D77" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="60">
         <v>89.471048549493304</v>
       </c>
-      <c r="F77" s="44">
+      <c r="F77" s="60">
         <v>114.685504887844</v>
       </c>
-      <c r="G77" s="44">
+      <c r="G77" s="60">
         <v>89.471048549493304</v>
       </c>
-      <c r="H77" s="45">
+      <c r="H77" s="60">
         <v>119.93502545760801</v>
       </c>
-      <c r="I77" s="43">
+      <c r="I77" s="59">
         <v>123.539810688771</v>
       </c>
-      <c r="J77" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77" s="44">
+      <c r="J77" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="60">
         <v>127.426886704653</v>
       </c>
-      <c r="L77" s="44">
+      <c r="L77" s="60">
         <v>169.421258042868</v>
       </c>
-      <c r="M77" s="44">
+      <c r="M77" s="60">
         <v>127.426886704653</v>
       </c>
-      <c r="N77" s="45">
+      <c r="N77" s="61">
         <v>178.18885772583999</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="43">
+      <c r="C78" s="59">
         <v>34.3187324128901</v>
       </c>
-      <c r="D78" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="44">
+      <c r="D78" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="60">
         <v>49.192967353779402</v>
       </c>
-      <c r="F78" s="44">
+      <c r="F78" s="60">
         <v>65.186240709917399</v>
       </c>
-      <c r="G78" s="44">
+      <c r="G78" s="60">
         <v>44.894028679541201</v>
       </c>
-      <c r="H78" s="45">
+      <c r="H78" s="60">
         <v>89.463194287622699</v>
       </c>
-      <c r="I78" s="43">
+      <c r="I78" s="59">
         <v>61.061143730751198</v>
       </c>
-      <c r="J78" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K78" s="44">
+      <c r="J78" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="60">
         <v>88.272286845795804</v>
       </c>
-      <c r="L78" s="44">
+      <c r="L78" s="60">
         <v>119.054396612779</v>
       </c>
-      <c r="M78" s="44">
+      <c r="M78" s="60">
         <v>79.614506517854096</v>
       </c>
-      <c r="N78" s="45">
+      <c r="N78" s="61">
         <v>174.84315990939101</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="C79" s="47">
+      <c r="C79" s="63">
         <v>33.485402592892797</v>
       </c>
-      <c r="D79" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="48">
+      <c r="D79" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="64">
         <v>50.598477661426003</v>
       </c>
-      <c r="F79" s="48">
+      <c r="F79" s="64">
         <v>70.969101253891495</v>
       </c>
-      <c r="G79" s="48">
+      <c r="G79" s="64">
         <v>59.109919984935502</v>
       </c>
-      <c r="H79" s="49">
+      <c r="H79" s="64">
         <v>98.602787272299395</v>
       </c>
-      <c r="I79" s="47">
+      <c r="I79" s="63">
         <v>54.966094084340298</v>
       </c>
-      <c r="J79" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K79" s="48">
+      <c r="J79" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="64">
         <v>92.830326023495402</v>
       </c>
-      <c r="L79" s="48">
+      <c r="L79" s="64">
         <v>126.726687069093</v>
       </c>
-      <c r="M79" s="48">
+      <c r="M79" s="64">
         <v>103.41581249357</v>
       </c>
-      <c r="N79" s="49">
+      <c r="N79" s="65">
         <v>182.56481656420399</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B80" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="59">
         <v>154.852468173435</v>
       </c>
-      <c r="D80" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="52">
+      <c r="D80" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="60">
         <v>187.624838346095</v>
       </c>
-      <c r="F80" s="52">
+      <c r="F80" s="60">
         <v>173.48766558650101</v>
       </c>
-      <c r="G80" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="51">
+      <c r="G80" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="59">
         <v>305.91476110621301</v>
       </c>
-      <c r="J80" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" s="52">
+      <c r="J80" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="60">
         <v>315.72655124004598</v>
       </c>
-      <c r="L80" s="52">
+      <c r="L80" s="60">
         <v>337.40965783384399</v>
       </c>
-      <c r="M80" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="N80" s="53" t="s">
+      <c r="M80" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N80" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="C81" s="43">
+      <c r="C81" s="59">
         <v>68.916083797982495</v>
       </c>
-      <c r="D81" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="44">
+      <c r="D81" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="60">
         <v>99.496176413027001</v>
       </c>
-      <c r="F81" s="44">
+      <c r="F81" s="60">
         <v>112.52044134328899</v>
       </c>
-      <c r="G81" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" s="43">
+      <c r="G81" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="59">
         <v>123.281989098346</v>
       </c>
-      <c r="J81" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K81" s="44">
+      <c r="J81" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="60">
         <v>210.84557170648799</v>
       </c>
-      <c r="L81" s="44">
+      <c r="L81" s="60">
         <v>217.45395104804601</v>
       </c>
-      <c r="M81" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N81" s="45" t="s">
+      <c r="M81" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="C82" s="43">
+      <c r="C82" s="59">
         <v>61.580476223446503</v>
       </c>
-      <c r="D82" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="44">
+      <c r="D82" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="60">
         <v>110.049159917126</v>
       </c>
-      <c r="F82" s="44">
+      <c r="F82" s="60">
         <v>139.55058328593299</v>
       </c>
-      <c r="G82" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" s="43">
+      <c r="G82" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="59">
         <v>129.532009978128</v>
       </c>
-      <c r="J82" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K82" s="44">
+      <c r="J82" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="60">
         <v>195.97070061062399</v>
       </c>
-      <c r="L82" s="44">
+      <c r="L82" s="60">
         <v>228.17194842918099</v>
       </c>
-      <c r="M82" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N82" s="45" t="s">
+      <c r="M82" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N82" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C83" s="47">
+      <c r="C83" s="51">
         <v>39.9900149994019</v>
       </c>
-      <c r="D83" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="48">
+      <c r="D83" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="52">
         <v>59.951170763809799</v>
       </c>
-      <c r="F83" s="48">
+      <c r="F83" s="52">
         <v>78.657716190562894</v>
       </c>
-      <c r="G83" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I83" s="47">
+      <c r="G83" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="51">
         <v>68.682338548023793</v>
       </c>
-      <c r="J83" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K83" s="48">
+      <c r="J83" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="52">
         <v>110.885728978939</v>
       </c>
-      <c r="L83" s="48">
+      <c r="L83" s="52">
         <v>140.66792592943699</v>
       </c>
-      <c r="M83" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="N83" s="49" t="s">
+      <c r="M83" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="41" t="s">
+      <c r="A84" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="67">
         <v>81.146351750007696</v>
       </c>
-      <c r="D84" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="52">
+      <c r="D84" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="68">
         <v>128.14365875175301</v>
       </c>
-      <c r="F84" s="52">
+      <c r="F84" s="68">
         <v>177.68887196327199</v>
       </c>
-      <c r="G84" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" s="51">
+      <c r="G84" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="67">
         <v>203.381055318195</v>
       </c>
-      <c r="J84" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84" s="52">
+      <c r="J84" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="68">
         <v>255.49001679205199</v>
       </c>
-      <c r="L84" s="52">
+      <c r="L84" s="68">
         <v>327.95534479944899</v>
       </c>
-      <c r="M84" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="N84" s="53" t="s">
+      <c r="M84" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="N84" s="69" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B85" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I85" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K85" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L85" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="M85" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N85" s="45" t="s">
+      <c r="C85" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N85" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="43">
+      <c r="C86" s="59">
         <v>69.632505308985799</v>
       </c>
-      <c r="D86" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" s="44">
+      <c r="D86" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="60">
         <v>141.05705176976801</v>
       </c>
-      <c r="F86" s="44">
+      <c r="F86" s="60">
         <v>151.15547570343</v>
       </c>
-      <c r="G86" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I86" s="43">
+      <c r="G86" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="59">
         <v>151.17583883667601</v>
       </c>
-      <c r="J86" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K86" s="44">
+      <c r="J86" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="60">
         <v>248.85671518375801</v>
       </c>
-      <c r="L86" s="44">
+      <c r="L86" s="60">
         <v>260.65104571262799</v>
       </c>
-      <c r="M86" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N86" s="45" t="s">
+      <c r="M86" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N86" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C87" s="43">
+      <c r="C87" s="59">
         <v>88.356634893361104</v>
       </c>
-      <c r="D87" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="44">
+      <c r="D87" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="60">
         <v>97.297608694380301</v>
       </c>
-      <c r="F87" s="44">
+      <c r="F87" s="60">
         <v>111.148337667965</v>
       </c>
-      <c r="G87" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I87" s="43">
+      <c r="G87" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="59">
         <v>140.245417689487</v>
       </c>
-      <c r="J87" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K87" s="44">
+      <c r="J87" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="60">
         <v>164.881997831913</v>
       </c>
-      <c r="L87" s="44">
+      <c r="L87" s="60">
         <v>182.432339810055</v>
       </c>
-      <c r="M87" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N87" s="45" t="s">
+      <c r="M87" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N87" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="41" t="s">
+      <c r="A88" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="C88" s="43">
+      <c r="C88" s="59">
         <v>50.046407565495997</v>
       </c>
-      <c r="D88" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88" s="44">
+      <c r="D88" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="60">
         <v>84.994720208967095</v>
       </c>
-      <c r="F88" s="44">
+      <c r="F88" s="60">
         <v>115.045937164248</v>
       </c>
-      <c r="G88" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" s="43">
+      <c r="G88" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="59">
         <v>76.655925201583898</v>
       </c>
-      <c r="J88" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K88" s="44">
+      <c r="J88" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="60">
         <v>126.767884432882</v>
       </c>
-      <c r="L88" s="44">
+      <c r="L88" s="60">
         <v>175.36798839829001</v>
       </c>
-      <c r="M88" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N88" s="45" t="s">
+      <c r="M88" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N88" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="43">
+      <c r="C89" s="59">
         <v>58.134315187405001</v>
       </c>
-      <c r="D89" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="44">
+      <c r="D89" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="60">
         <v>70.555116193129194</v>
       </c>
-      <c r="F89" s="44">
+      <c r="F89" s="60">
         <v>87.965816536325093</v>
       </c>
-      <c r="G89" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I89" s="43">
+      <c r="G89" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="59">
         <v>98.468098337018802</v>
       </c>
-      <c r="J89" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K89" s="44">
+      <c r="J89" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="60">
         <v>136.53837056556901</v>
       </c>
-      <c r="L89" s="44">
+      <c r="L89" s="60">
         <v>161.629871801089</v>
       </c>
-      <c r="M89" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N89" s="45" t="s">
+      <c r="M89" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="41" t="s">
+      <c r="A90" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="47">
+      <c r="C90" s="63">
         <v>33.922540462611302</v>
       </c>
-      <c r="D90" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="48">
+      <c r="D90" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="64">
         <v>56.645877536279798</v>
       </c>
-      <c r="F90" s="48">
+      <c r="F90" s="64">
         <v>75.052938808254595</v>
       </c>
-      <c r="G90" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" s="47">
+      <c r="G90" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="63">
         <v>56.941443411711298</v>
       </c>
-      <c r="J90" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K90" s="48">
+      <c r="J90" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="64">
         <v>104.676625965309</v>
       </c>
-      <c r="L90" s="48">
+      <c r="L90" s="64">
         <v>134.113845283052</v>
       </c>
-      <c r="M90" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="N90" s="49" t="s">
+      <c r="M90" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="N90" s="65" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B91" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C91" s="51">
+      <c r="C91" s="59">
         <v>79.942392338851306</v>
       </c>
-      <c r="D91" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="52">
+      <c r="D91" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="60">
         <v>123.753686772192</v>
       </c>
-      <c r="F91" s="52">
+      <c r="F91" s="60">
         <v>176.51855954488201</v>
       </c>
-      <c r="G91" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I91" s="51">
+      <c r="G91" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="59">
         <v>218.43944046578699</v>
       </c>
-      <c r="J91" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K91" s="52">
+      <c r="J91" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="60">
         <v>253.46834559870501</v>
       </c>
-      <c r="L91" s="52">
+      <c r="L91" s="60">
         <v>351.96737980890299</v>
       </c>
-      <c r="M91" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="N91" s="53" t="s">
+      <c r="M91" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="41" t="s">
+      <c r="A92" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C92" s="43">
+      <c r="C92" s="59">
         <v>91.225538026086198</v>
       </c>
-      <c r="D92" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="44">
+      <c r="D92" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="60">
         <v>100.77672136552501</v>
       </c>
-      <c r="F92" s="44">
+      <c r="F92" s="60">
         <v>110.144795094515</v>
       </c>
-      <c r="G92" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I92" s="43">
+      <c r="G92" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="59">
         <v>130.094052551489</v>
       </c>
-      <c r="J92" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" s="44">
+      <c r="J92" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="60">
         <v>170.964436149314</v>
       </c>
-      <c r="L92" s="44">
+      <c r="L92" s="60">
         <v>210.85212536629601</v>
       </c>
-      <c r="M92" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N92" s="45" t="s">
+      <c r="M92" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N92" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="41" t="s">
+      <c r="A93" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="C93" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="44">
+      <c r="C93" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="60">
         <v>143.516511895853</v>
       </c>
-      <c r="F93" s="44">
+      <c r="F93" s="60">
         <v>158.78057396779701</v>
       </c>
-      <c r="G93" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I93" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K93" s="44">
+      <c r="G93" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="60">
         <v>224.23955348819101</v>
       </c>
-      <c r="L93" s="44">
+      <c r="L93" s="60">
         <v>276.28177377702599</v>
       </c>
-      <c r="M93" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N93" s="45" t="s">
+      <c r="M93" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N93" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="C94" s="43">
+      <c r="C94" s="59">
         <v>149.00182758083599</v>
       </c>
-      <c r="D94" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" s="44">
+      <c r="D94" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="60">
         <v>109.482437744802</v>
       </c>
-      <c r="F94" s="44">
+      <c r="F94" s="60">
         <v>128.42724734584601</v>
       </c>
-      <c r="G94" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I94" s="43">
+      <c r="G94" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="59">
         <v>253.59683163022501</v>
       </c>
-      <c r="J94" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K94" s="44">
+      <c r="J94" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="60">
         <v>161.41913203623</v>
       </c>
-      <c r="L94" s="44">
+      <c r="L94" s="60">
         <v>183.013380784139</v>
       </c>
-      <c r="M94" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N94" s="45" t="s">
+      <c r="M94" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N94" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C95" s="43">
+      <c r="C95" s="59">
         <v>64.079357500450598</v>
       </c>
-      <c r="D95" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="44">
+      <c r="D95" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="60">
         <v>106.726846758881</v>
       </c>
-      <c r="F95" s="44">
+      <c r="F95" s="60">
         <v>182.847278141592</v>
       </c>
-      <c r="G95" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I95" s="43">
+      <c r="G95" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="59">
         <v>133.158003758955</v>
       </c>
-      <c r="J95" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K95" s="44">
+      <c r="J95" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="60">
         <v>167.529683962571</v>
       </c>
-      <c r="L95" s="44">
+      <c r="L95" s="60">
         <v>344.43490567382997</v>
       </c>
-      <c r="M95" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N95" s="45" t="s">
+      <c r="M95" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N95" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="41" t="s">
+      <c r="A96" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="47">
+      <c r="C96" s="51">
         <v>89.961341725477197</v>
       </c>
-      <c r="D96" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="48">
+      <c r="D96" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="52">
         <v>117.884745168987</v>
       </c>
-      <c r="F96" s="48">
+      <c r="F96" s="52">
         <v>134.409908411868</v>
       </c>
-      <c r="G96" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H96" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I96" s="47">
+      <c r="G96" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="51">
         <v>134.97430318359</v>
       </c>
-      <c r="J96" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" s="48">
+      <c r="J96" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="52">
         <v>192.701645443594</v>
       </c>
-      <c r="L96" s="48">
+      <c r="L96" s="52">
         <v>233.66553732304101</v>
       </c>
-      <c r="M96" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="N96" s="49" t="s">
+      <c r="M96" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N96" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="B97" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="C97" s="51">
+      <c r="C97" s="67">
         <v>83.977540999492206</v>
       </c>
-      <c r="D97" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="52">
+      <c r="D97" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="68">
         <v>132.09087595987299</v>
       </c>
-      <c r="F97" s="52">
+      <c r="F97" s="68">
         <v>182.52229967443901</v>
       </c>
-      <c r="G97" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H97" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I97" s="51">
+      <c r="G97" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="67">
         <v>195.967973123576</v>
       </c>
-      <c r="J97" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K97" s="52">
+      <c r="J97" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="68">
         <v>242.65710048812599</v>
       </c>
-      <c r="L97" s="52">
+      <c r="L97" s="68">
         <v>326.62653762235999</v>
       </c>
-      <c r="M97" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="N97" s="53" t="s">
+      <c r="M97" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="N97" s="69" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="41" t="s">
+      <c r="A98" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C98" s="47">
+      <c r="C98" s="63">
         <v>96.1129098134016</v>
       </c>
-      <c r="D98" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" s="48">
+      <c r="D98" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="64">
         <v>104.12782589356399</v>
       </c>
-      <c r="F98" s="48">
+      <c r="F98" s="64">
         <v>122.464330777843</v>
       </c>
-      <c r="G98" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I98" s="47">
+      <c r="G98" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="63">
         <v>150.385258106837</v>
       </c>
-      <c r="J98" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K98" s="48">
+      <c r="J98" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="64">
         <v>177.21641169423901</v>
       </c>
-      <c r="L98" s="48">
+      <c r="L98" s="64">
         <v>211.72403902870201</v>
       </c>
-      <c r="M98" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="N98" s="49" t="s">
+      <c r="M98" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="N98" s="65" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="54"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="35"/>
-      <c r="M99" s="35"/>
-      <c r="N99" s="35"/>
+      <c r="A99" s="71"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="52"/>
+      <c r="J99" s="52"/>
+      <c r="K99" s="52"/>
+      <c r="L99" s="52"/>
+      <c r="M99" s="52"/>
+      <c r="N99" s="52"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
-      <c r="K100" s="56"/>
-      <c r="L100" s="56"/>
-      <c r="M100" s="56"/>
-      <c r="N100" s="56"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="73"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="73"/>
+      <c r="I100" s="73"/>
+      <c r="J100" s="73"/>
+      <c r="K100" s="73"/>
+      <c r="L100" s="73"/>
+      <c r="M100" s="73"/>
+      <c r="N100" s="73"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C101" s="56"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="56"/>
-      <c r="K101" s="56"/>
-      <c r="L101" s="56"/>
-      <c r="M101" s="56"/>
-      <c r="N101" s="56"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
+      <c r="H101" s="73"/>
+      <c r="I101" s="73"/>
+      <c r="J101" s="73"/>
+      <c r="K101" s="73"/>
+      <c r="L101" s="73"/>
+      <c r="M101" s="73"/>
+      <c r="N101" s="73"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="56"/>
-      <c r="J102" s="56"/>
-      <c r="K102" s="56"/>
-      <c r="L102" s="56"/>
-      <c r="M102" s="56"/>
-      <c r="N102" s="56"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="73"/>
+      <c r="J102" s="73"/>
+      <c r="K102" s="73"/>
+      <c r="L102" s="73"/>
+      <c r="M102" s="73"/>
+      <c r="N102" s="73"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56"/>
-      <c r="H103" s="56"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="56"/>
-      <c r="K103" s="56"/>
-      <c r="L103" s="56"/>
-      <c r="M103" s="56"/>
-      <c r="N103" s="56"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="73"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="73"/>
+      <c r="G103" s="73"/>
+      <c r="H103" s="73"/>
+      <c r="I103" s="73"/>
+      <c r="J103" s="73"/>
+      <c r="K103" s="73"/>
+      <c r="L103" s="73"/>
+      <c r="M103" s="73"/>
+      <c r="N103" s="73"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="56"/>
-      <c r="K104" s="56"/>
-      <c r="L104" s="56"/>
-      <c r="M104" s="56"/>
-      <c r="N104" s="56"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="73"/>
+      <c r="H104" s="73"/>
+      <c r="I104" s="73"/>
+      <c r="J104" s="73"/>
+      <c r="K104" s="73"/>
+      <c r="L104" s="73"/>
+      <c r="M104" s="73"/>
+      <c r="N104" s="73"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="56"/>
-      <c r="M105" s="56"/>
-      <c r="N105" s="56"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="73"/>
+      <c r="G105" s="73"/>
+      <c r="H105" s="73"/>
+      <c r="I105" s="73"/>
+      <c r="J105" s="73"/>
+      <c r="K105" s="73"/>
+      <c r="L105" s="73"/>
+      <c r="M105" s="73"/>
+      <c r="N105" s="73"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C106" s="56"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="56"/>
-      <c r="J106" s="56"/>
-      <c r="K106" s="56"/>
-      <c r="L106" s="56"/>
-      <c r="M106" s="56"/>
-      <c r="N106" s="56"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="73"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="73"/>
+      <c r="H106" s="73"/>
+      <c r="I106" s="73"/>
+      <c r="J106" s="73"/>
+      <c r="K106" s="73"/>
+      <c r="L106" s="73"/>
+      <c r="M106" s="73"/>
+      <c r="N106" s="73"/>
     </row>
     <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="C107" s="56"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="56"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="56"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="73"/>
+      <c r="K107" s="73"/>
+      <c r="L107" s="73"/>
+      <c r="M107" s="73"/>
+      <c r="N107" s="73"/>
     </row>
     <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="56"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
-      <c r="K108" s="56"/>
-      <c r="L108" s="56"/>
-      <c r="M108" s="56"/>
-      <c r="N108" s="56"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="73"/>
+      <c r="H108" s="73"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="73"/>
+      <c r="K108" s="73"/>
+      <c r="L108" s="73"/>
+      <c r="M108" s="73"/>
+      <c r="N108" s="73"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C109" s="56"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="56"/>
-      <c r="G109" s="56"/>
-      <c r="H109" s="56"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="56"/>
-      <c r="K109" s="56"/>
-      <c r="L109" s="56"/>
-      <c r="M109" s="56"/>
-      <c r="N109" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="C109" s="73"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
+      <c r="K109" s="73"/>
+      <c r="L109" s="73"/>
+      <c r="M109" s="73"/>
+      <c r="N109" s="73"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C110" s="73"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="73"/>
+      <c r="F110" s="73"/>
+      <c r="G110" s="73"/>
+      <c r="H110" s="73"/>
+      <c r="I110" s="73"/>
+      <c r="J110" s="73"/>
+      <c r="K110" s="73"/>
+      <c r="L110" s="73"/>
+      <c r="M110" s="73"/>
+      <c r="N110" s="73"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="C110" s="56"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="56"/>
-      <c r="K110" s="56"/>
-      <c r="L110" s="56"/>
-      <c r="M110" s="56"/>
-      <c r="N110" s="56"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C111" s="56"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="56"/>
-      <c r="K111" s="56"/>
-      <c r="L111" s="56"/>
-      <c r="M111" s="56"/>
-      <c r="N111" s="56"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="73"/>
+      <c r="E111" s="73"/>
+      <c r="F111" s="73"/>
+      <c r="G111" s="73"/>
+      <c r="H111" s="73"/>
+      <c r="I111" s="73"/>
+      <c r="J111" s="73"/>
+      <c r="K111" s="73"/>
+      <c r="L111" s="73"/>
+      <c r="M111" s="73"/>
+      <c r="N111" s="73"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C112" s="56"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="56"/>
-      <c r="J112" s="56"/>
-      <c r="K112" s="56"/>
-      <c r="L112" s="56"/>
-      <c r="M112" s="56"/>
-      <c r="N112" s="56"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
+      <c r="F112" s="73"/>
+      <c r="G112" s="73"/>
+      <c r="H112" s="73"/>
+      <c r="I112" s="73"/>
+      <c r="J112" s="73"/>
+      <c r="K112" s="73"/>
+      <c r="L112" s="73"/>
+      <c r="M112" s="73"/>
+      <c r="N112" s="73"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C113" s="56"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="56"/>
-      <c r="G113" s="56"/>
-      <c r="H113" s="56"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="56"/>
-      <c r="K113" s="56"/>
-      <c r="L113" s="56"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="56"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="73"/>
+      <c r="E113" s="73"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="73"/>
+      <c r="H113" s="73"/>
+      <c r="I113" s="73"/>
+      <c r="J113" s="73"/>
+      <c r="K113" s="73"/>
+      <c r="L113" s="73"/>
+      <c r="M113" s="73"/>
+      <c r="N113" s="73"/>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="56"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
-      <c r="H114" s="56"/>
-      <c r="I114" s="56"/>
-      <c r="J114" s="56"/>
-      <c r="K114" s="56"/>
-      <c r="L114" s="56"/>
-      <c r="M114" s="56"/>
-      <c r="N114" s="56"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="73"/>
+      <c r="F114" s="73"/>
+      <c r="G114" s="73"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="73"/>
+      <c r="K114" s="73"/>
+      <c r="L114" s="73"/>
+      <c r="M114" s="73"/>
+      <c r="N114" s="73"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{660B71C2-CECA-487F-BFA3-7182C87D0C8D}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{4865AAC3-85E7-4949-A29C-3DD88EB18A1A}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{6BC868A3-CA6B-4817-82F8-81D7803E06CC}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{5FE6948C-83CD-40C7-98B6-7854A42AAC9B}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{82A2FD71-4B28-4959-886B-D91C0C403D87}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{72E8EB62-05F1-405F-9105-C3F31C279D66}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{08CA12D2-8A48-449F-8F2D-9796F3BBD1D8}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CC0BF264-8AEA-4914-9A0D-82FCFF13F3B2}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{50C8209B-CC28-4ECA-967E-8B0319DC8E91}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{D33287F6-20A5-4B59-967B-10792B9BECCC}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{3AF7B72A-CC0D-4DCF-8031-39CDA6851006}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{BDCDE1D9-B0B6-4B59-A7E7-DC3C63FD2528}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/AfDD_2024_Annex_Table_Tab28.xlsx
+++ b/AfDD_2024_Annex_Table_Tab28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{319C88D1-23A9-4298-B6EE-7B5B034631C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA8719E9-C63D-4181-8A70-6D04B8C5C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{9EADA7C2-4373-4446-8202-91E4DE5BA442}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2679D8C-D4D7-4BA4-BFCA-0C771D2190FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -1452,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0C44B5-0350-430F-AC94-D26AB47472E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A356F2F5-3485-4B02-BFFB-1665D4E41907}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6013,12 +6013,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{08CA12D2-8A48-449F-8F2D-9796F3BBD1D8}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CC0BF264-8AEA-4914-9A0D-82FCFF13F3B2}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{50C8209B-CC28-4ECA-967E-8B0319DC8E91}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{D33287F6-20A5-4B59-967B-10792B9BECCC}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{3AF7B72A-CC0D-4DCF-8031-39CDA6851006}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{BDCDE1D9-B0B6-4B59-A7E7-DC3C63FD2528}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{5E0D8910-7B06-4A8F-A5E8-1CAF48482CFA}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{90D2C5B6-57CD-42AB-8473-B5DC2AED8CE9}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3AB1D49A-6424-45E8-97F8-76F71C8B168C}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{3D70DF02-CA3D-49D2-B936-6A424CC588B8}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{A115FFD2-B94C-49CF-90EA-6AB571B13EA4}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{B7B706F5-5733-47C8-AA59-FB9BB321FCEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab28.xlsx
+++ b/AfDD_2024_Annex_Table_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA8719E9-C63D-4181-8A70-6D04B8C5C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{170DF350-0780-479E-BAEA-01F0A0177B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2679D8C-D4D7-4BA4-BFCA-0C771D2190FE}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{BEE5F65F-65E6-459C-A6BA-46BF57D16059}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -1135,8 +1135,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1452,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A356F2F5-3485-4B02-BFFB-1665D4E41907}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE4D359-1EAD-438A-855E-2383DAAD68AA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1464,7 +1464,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="12.42578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12.42578125" style="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5948,7 +5948,7 @@
       <c r="N110" s="73"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="76" t="s">
+      <c r="B111" s="75" t="s">
         <v>176</v>
       </c>
       <c r="C111" s="73"/>
@@ -5965,7 +5965,7 @@
       <c r="N111" s="73"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="75" t="s">
         <v>173</v>
       </c>
       <c r="C112" s="73"/>
@@ -6013,12 +6013,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{5E0D8910-7B06-4A8F-A5E8-1CAF48482CFA}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{90D2C5B6-57CD-42AB-8473-B5DC2AED8CE9}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3AB1D49A-6424-45E8-97F8-76F71C8B168C}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{3D70DF02-CA3D-49D2-B936-6A424CC588B8}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{A115FFD2-B94C-49CF-90EA-6AB571B13EA4}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{B7B706F5-5733-47C8-AA59-FB9BB321FCEB}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{51F2A1DE-205C-4D5F-9DBA-C71FAE061A10}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D14B6739-E274-4B03-AC0C-8D579C937320}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{DE78DA99-B325-4581-ABA4-CA94C2F28B28}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{F3F2EE52-80D2-469D-8BA2-9C57CE9DA9D2}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{0A1728F8-ACF7-4A32-BE57-DF71C90A307F}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{EB304CE6-5662-4FCA-9C8B-834A935372C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab28.xlsx
+++ b/AfDD_2024_Annex_Table_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{170DF350-0780-479E-BAEA-01F0A0177B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B994D7A0-B4A9-4FD2-81D1-55FA6668AD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{BEE5F65F-65E6-459C-A6BA-46BF57D16059}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{364FE5BC-AC16-4A49-8724-0D8CC3C784EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -1452,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE4D359-1EAD-438A-855E-2383DAAD68AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB81791-BA53-4781-98DD-DE0AD2EE6AF2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6013,12 +6013,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{51F2A1DE-205C-4D5F-9DBA-C71FAE061A10}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D14B6739-E274-4B03-AC0C-8D579C937320}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{DE78DA99-B325-4581-ABA4-CA94C2F28B28}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{F3F2EE52-80D2-469D-8BA2-9C57CE9DA9D2}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{0A1728F8-ACF7-4A32-BE57-DF71C90A307F}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{EB304CE6-5662-4FCA-9C8B-834A935372C9}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6129836C-C3D8-47A7-9C15-18B9B289C88F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{ECC3F7C0-DA54-4164-8B1E-C4135D3FA4A7}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6A11D23D-9A3B-4EA7-B79A-C4F95C477543}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{EBEDA3FF-1373-4831-9EF6-FB02BC58DB84}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{07A44E64-2761-47F0-89C6-72BFC89CC190}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{F217340D-2D9E-42F6-97BA-C7A8056C3BC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
